--- a/data/trans_camb/P23_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 8,45</t>
+          <t>-8,55; 8,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 6,38</t>
+          <t>-10,2; 7,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -1,97</t>
+          <t>-18,91; -1,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 16,51</t>
+          <t>0,67; 17,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 8,14</t>
+          <t>-7,11; 8,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 3,7</t>
+          <t>-9,89; 3,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 10,57</t>
+          <t>-1,34; 10,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 5,04</t>
+          <t>-6,21; 4,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -1,28</t>
+          <t>-12,78; -1,84</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 24,7</t>
+          <t>-20,82; 23,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 18,76</t>
+          <t>-24,26; 21,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,62; -5,28</t>
+          <t>-45,55; -4,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 79,19</t>
+          <t>2,03; 83,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 38,85</t>
+          <t>-23,98; 37,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 17,71</t>
+          <t>-32,84; 16,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 36,73</t>
+          <t>-3,92; 36,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 17,03</t>
+          <t>-17,83; 16,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,11; -4,43</t>
+          <t>-36,37; -6,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 10,32</t>
+          <t>-3,14; 10,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 12,44</t>
+          <t>-0,39; 11,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,19; -3,17</t>
+          <t>-16,85; -3,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 10,69</t>
+          <t>0,4; 10,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 9,83</t>
+          <t>-0,34; 10,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 1,61</t>
+          <t>-7,84; 1,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 8,33</t>
+          <t>-0,02; 8,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 9,58</t>
+          <t>0,92; 9,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,72; -2,34</t>
+          <t>-10,99; -2,42</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 30,8</t>
+          <t>-8,04; 31,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 39,63</t>
+          <t>-0,8; 36,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,7; -9,94</t>
+          <t>-43,65; -10,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 52,67</t>
+          <t>1,14; 53,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 50,49</t>
+          <t>-1,44; 49,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 8,14</t>
+          <t>-31,69; 8,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 31,47</t>
+          <t>0,01; 31,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 35,45</t>
+          <t>2,79; 34,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,65; -8,68</t>
+          <t>-35,15; -8,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 3,64</t>
+          <t>-12,25; 3,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,55; -5,68</t>
+          <t>-20,51; -5,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,53; -11,88</t>
+          <t>-26,4; -11,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 3,99</t>
+          <t>-9,38; 4,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 3,45</t>
+          <t>-10,41; 3,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,4; -3,89</t>
+          <t>-15,7; -3,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 1,74</t>
+          <t>-8,62; 1,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -3,12</t>
+          <t>-13,05; -3,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -9,77</t>
+          <t>-19,02; -10,01</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 9,43</t>
+          <t>-25,87; 7,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,64; -14,1</t>
+          <t>-43,82; -14,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,91; -29,67</t>
+          <t>-56,63; -31,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 16,91</t>
+          <t>-30,17; 17,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 14,37</t>
+          <t>-33,44; 12,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,35; -15,78</t>
+          <t>-50,35; -12,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 5,54</t>
+          <t>-23,03; 5,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,13; -9,7</t>
+          <t>-34,43; -9,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,25; -29,47</t>
+          <t>-49,9; -29,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -7,02</t>
+          <t>-21,52; -6,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 0,14</t>
+          <t>-14,67; 0,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,64; -12,01</t>
+          <t>-28,14; -12,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 6,51</t>
+          <t>-6,82; 5,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,49</t>
+          <t>-4,6; 8,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,56; -4,56</t>
+          <t>-18,51; -4,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -2,44</t>
+          <t>-12,15; -2,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 2,15</t>
+          <t>-7,89; 1,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-23,33; -11,18</t>
+          <t>-22,83; -10,8</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,48; -17,02</t>
+          <t>-44,09; -15,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 0,32</t>
+          <t>-30,16; 1,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,52; -27,33</t>
+          <t>-59,35; -27,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 28,41</t>
+          <t>-23,07; 24,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 36,22</t>
+          <t>-15,81; 37,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,38; -19,19</t>
+          <t>-65,07; -19,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,7; -7,28</t>
+          <t>-32,36; -7,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 6,13</t>
+          <t>-20,63; 5,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,9; -33,48</t>
+          <t>-60,85; -32,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 12,92</t>
+          <t>-6,53; 13,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 11,03</t>
+          <t>-7,83; 11,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,42; -11,54</t>
+          <t>-27,52; -10,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 11,66</t>
+          <t>-7,07; 12,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 6,16</t>
+          <t>-9,7; 7,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,54; -5,42</t>
+          <t>-19,95; -5,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 9,44</t>
+          <t>-3,56; 9,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 7,25</t>
+          <t>-6,5; 6,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -11,48</t>
+          <t>-22,25; -11,14</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 39,56</t>
+          <t>-15,44; 41,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 31,98</t>
+          <t>-18,12; 32,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,52; -34,38</t>
+          <t>-63,84; -31,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 52,9</t>
+          <t>-21,44; 54,98</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 28,88</t>
+          <t>-31,01; 34,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-61,71; -24,87</t>
+          <t>-61,15; -26,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 31,54</t>
+          <t>-9,86; 32,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 25,14</t>
+          <t>-18,01; 21,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-58,96; -37,69</t>
+          <t>-60,41; -37,12</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-24,0; -7,39</t>
+          <t>-23,21; -6,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -4,26</t>
+          <t>-20,47; -3,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-26,32; -9,64</t>
+          <t>-25,34; -9,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 7,73</t>
+          <t>-6,08; 8,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 11,25</t>
+          <t>-3,5; 10,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 2,03</t>
+          <t>-10,8; 2,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -1,49</t>
+          <t>-12,2; -1,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 1,71</t>
+          <t>-9,24; 2,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -5,98</t>
+          <t>-15,43; -5,88</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-48,59; -17,78</t>
+          <t>-46,53; -16,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-41,04; -10,39</t>
+          <t>-41,37; -8,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,4; -22,8</t>
+          <t>-50,82; -22,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 40,12</t>
+          <t>-22,92; 43,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 60,89</t>
+          <t>-12,47; 57,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 9,82</t>
+          <t>-40,51; 11,08</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,11; -4,76</t>
+          <t>-33,45; -5,81</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 5,57</t>
+          <t>-25,45; 7,07</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-42,96; -18,62</t>
+          <t>-42,0; -18,12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 7,31</t>
+          <t>-3,62; 7,89</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -1,79</t>
+          <t>-12,5; -1,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -2,42</t>
+          <t>-15,53; -2,99</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 7,16</t>
+          <t>-2,68; 6,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 4,81</t>
+          <t>-5,37; 4,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -0,34</t>
+          <t>-20,01; 0,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,42</t>
+          <t>-1,64; 5,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,09</t>
+          <t>-7,27; 0,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-17,46; -3,66</t>
+          <t>-17,74; -4,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 21,07</t>
+          <t>-9,41; 23,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-32,0; -4,78</t>
+          <t>-31,2; -3,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -7,28</t>
+          <t>-38,93; -8,28</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 32,29</t>
+          <t>-9,5; 30,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 21,5</t>
+          <t>-19,34; 18,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-66,29; -1,26</t>
+          <t>-73,66; 0,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 18,7</t>
+          <t>-5,01; 19,12</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 0,37</t>
+          <t>-21,87; 0,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-55,27; -12,32</t>
+          <t>-55,48; -14,37</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 0,88</t>
+          <t>-9,04; 1,02</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -2,03</t>
+          <t>-11,87; -2,08</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-34,86; -11,44</t>
+          <t>-30,87; -11,31</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,62</t>
+          <t>-1,87; 6,6</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 7,65</t>
+          <t>-1,31; 7,26</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -2,26</t>
+          <t>-10,03; -2,35</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 2,76</t>
+          <t>-4,05; 2,65</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,39</t>
+          <t>-5,08; 1,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-20,26; -8,43</t>
+          <t>-20,63; -8,59</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 2,36</t>
+          <t>-20,98; 2,99</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-28,61; -5,2</t>
+          <t>-28,12; -5,47</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-79,09; -29,36</t>
+          <t>-77,26; -29,13</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 31,56</t>
+          <t>-7,48; 32,46</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 37,13</t>
+          <t>-4,99; 34,87</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-40,28; -10,96</t>
+          <t>-40,3; -10,9</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 9,38</t>
+          <t>-12,34; 9,03</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 4,47</t>
+          <t>-15,68; 4,64</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-65,25; -28,21</t>
+          <t>-63,31; -28,26</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -0,83</t>
+          <t>-5,24; -0,41</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -2,86</t>
+          <t>-7,42; -2,75</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-20,85; -12,74</t>
+          <t>-20,87; -12,54</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,53</t>
+          <t>0,31; 4,62</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,66</t>
+          <t>-0,55; 3,6</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -4,36</t>
+          <t>-10,15; -4,56</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,31</t>
+          <t>-2,01; 1,38</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,19</t>
+          <t>-3,55; -0,25</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -9,3</t>
+          <t>-14,02; -9,13</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -2,18</t>
+          <t>-12,72; -1,18</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -7,39</t>
+          <t>-17,95; -7,1</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -32,69</t>
+          <t>-52,11; -32,38</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>0,3; 18,97</t>
+          <t>1,15; 19,73</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 15,9</t>
+          <t>-1,87; 15,5</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-40,34; -19,15</t>
+          <t>-40,53; -19,35</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,12</t>
+          <t>-6,13; 4,46</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -0,56</t>
+          <t>-10,88; -0,86</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-44,24; -29,48</t>
+          <t>-43,5; -29,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
